--- a/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
+++ b/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBCF229-2814-4FB3-AF02-7B4F73992AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="PO - HH" sheetId="2" r:id="rId1"/>
     <sheet name="PO - DV" sheetId="3" r:id="rId2"/>
     <sheet name="PO - TS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3DFAA85E-FFBF-4895-AB90-889BB0014873}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{38E52348-2636-46CD-A498-4287AC79F31E}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1FB802E4-E7BE-4F7D-B839-B3943951D3EE}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,12 +109,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{AB0808F2-072A-45A5-BDBD-BA3B2823F000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{DD18E7C6-EF0B-43DA-8B08-B97DB19FD8E1}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{86C555A5-BB69-4674-94D0-8285D72B7F76}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,12 +193,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A9046A09-F780-4F39-96CA-C0E4EA3C8A40}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0078464F-986D-4B88-BE5C-5FDBABA238DD}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AC791F5E-4D01-4100-93D7-4D2F24A3ADE3}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>Hàng hóa</t>
   </si>
@@ -307,9 +306,6 @@
     <t>Chi tiết đơn hàng / Hàng tặng</t>
   </si>
   <si>
-    <t>Chi tiết đơn hàng / Thuế(%)</t>
-  </si>
-  <si>
     <t>Chi tiết đơn hàng / Chiết khấu(%)</t>
   </si>
   <si>
@@ -368,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -378,7 +374,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +389,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -403,7 +399,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -418,7 +414,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -428,7 +424,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -443,7 +439,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -453,7 +449,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -468,7 +464,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -478,7 +474,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -493,7 +489,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -503,7 +499,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,7 +514,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -528,7 +524,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,7 +539,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -553,7 +549,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -568,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -578,7 +574,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,7 +589,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -603,7 +599,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -620,7 +616,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -631,7 +627,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -641,7 +637,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -656,7 +652,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -666,7 +662,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -685,7 +681,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -695,7 +691,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -738,7 +734,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,7 +749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -764,7 +760,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -774,7 +770,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +798,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -812,7 +808,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -827,7 +823,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -837,7 +833,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -852,7 +848,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -862,7 +858,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -877,7 +873,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
@@ -887,7 +883,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -901,37 +897,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -952,28 +948,28 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1002,7 +998,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1066,7 +1062,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1077,7 +1073,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1091,12 +1087,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Tiền tệ" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1428,80 +1424,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.09765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30" style="1" customWidth="1"/>
-    <col min="23" max="23" width="28.09765625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="31.19921875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.19921875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="36.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.8984375" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" style="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>2</v>
@@ -1516,25 +1511,25 @@
         <v>3</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>9</v>
@@ -1543,43 +1538,43 @@
         <v>10</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="X1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="AI1" s="11" t="s">
         <v>13</v>
@@ -1590,19 +1585,16 @@
       <c r="AK1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1620,7 +1612,7 @@
         <v>45133</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>0</v>
@@ -1629,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>0</v>
@@ -1641,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="14">
         <v>1</v>
@@ -1650,64 +1642,64 @@
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
         <v>2</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="V2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="W2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AG2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>23960</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1198000</v>
+      </c>
+      <c r="AK2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Z2" s="1">
-        <v>200</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>23960</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>1198000</v>
-      </c>
-      <c r="AL2" s="1" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
@@ -1719,75 +1711,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.69921875" customWidth="1"/>
-    <col min="13" max="13" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.09765625" customWidth="1"/>
-    <col min="16" max="16" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.3984375" customWidth="1"/>
-    <col min="19" max="19" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.3984375" customWidth="1"/>
-    <col min="25" max="25" width="42.59765625" customWidth="1"/>
-    <col min="26" max="26" width="38.3984375" customWidth="1"/>
-    <col min="27" max="27" width="44.8984375" customWidth="1"/>
-    <col min="28" max="28" width="33.796875" customWidth="1"/>
-    <col min="29" max="29" width="40.3984375" customWidth="1"/>
-    <col min="30" max="30" width="20.3984375" customWidth="1"/>
-    <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="17.796875" customWidth="1"/>
-    <col min="33" max="33" width="23.3984375" customWidth="1"/>
-    <col min="34" max="35" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.42578125" customWidth="1"/>
+    <col min="24" max="24" width="42.5703125" customWidth="1"/>
+    <col min="25" max="25" width="38.42578125" customWidth="1"/>
+    <col min="26" max="26" width="44.85546875" customWidth="1"/>
+    <col min="27" max="27" width="33.85546875" customWidth="1"/>
+    <col min="28" max="28" width="40.42578125" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" customWidth="1"/>
+    <col min="30" max="30" width="19" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" customWidth="1"/>
+    <col min="33" max="34" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>7</v>
@@ -1799,51 +1790,48 @@
         <v>3</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1867,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -1879,21 +1867,21 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="14">
         <v>1</v>
       </c>
-      <c r="R2" s="1">
+      <c r="Q2" s="1">
         <v>10</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="U2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1901,8 +1889,8 @@
   <conditionalFormatting sqref="L2:N2">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:U2">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="O2:T2">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1911,77 +1899,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>7</v>
@@ -1993,67 +1980,67 @@
         <v>3</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>13</v>
@@ -2064,19 +2051,16 @@
       <c r="AI1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2100,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -2112,28 +2096,27 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="14">
         <v>10001</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1">
+      <c r="Q2" s="1">
         <v>10</v>
       </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="U2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2273,18 +2256,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2306,6 +2289,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2319,12 +2310,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
+++ b/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
@@ -866,32 +866,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Chi tiết đơn hàng / Giá của nhà cung cấp (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>POLO2023</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng / Giá của nhà cung cấp</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>34</v>
@@ -1648,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>5</v>
@@ -2256,18 +2234,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,14 +2267,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2310,4 +2280,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
+++ b/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forlife\code\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE887D06-160C-42E8-89F1-FFB0864E9042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO - HH" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>DELL</author>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8E58752B-DEF2-4F3B-B547-97D885A50648}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chỉ đích danh kho xuất NPL (tem, mác,..) cho hàng cần hoàn thiện</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{A7832FF1-B679-488B-9247-503E9D54AA45}">
       <text>
         <r>
           <rPr>
@@ -52,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{61507554-F81D-4D34-80CC-962F7DC2FAE3}">
       <text>
         <r>
           <rPr>
@@ -78,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A2689054-EB99-4A04-B2ED-7F582F58FA1E}">
       <text>
         <r>
           <rPr>
@@ -86,21 +101,61 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
           </rPr>
-          <t>Nguyễn Văn Quyết (DU01 PTPM):</t>
+          <t>DELL:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-1/0</t>
+Số PR gốc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F8F819C1-AF84-4F5C-9E40-917884FC7863}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Số dòng trên PR gốc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{48A72AF1-9C27-454B-98B3-F1078E835996}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Điền TRUE/FALSE</t>
         </r>
       </text>
     </comment>
@@ -109,12 +164,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F516180F-CF8F-4AB6-827E-209C4F56FB26}">
       <text>
         <r>
           <rPr>
@@ -138,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{82E18E81-AD32-429C-9FCA-CE6C22164273}">
       <text>
         <r>
           <rPr>
@@ -162,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E2A96B8E-1988-4460-82D2-A660A73E6811}">
       <text>
         <r>
           <rPr>
@@ -193,12 +248,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BE2C66AC-9411-42CF-AEB5-A20C18AE6CD6}">
       <text>
         <r>
           <rPr>
@@ -222,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3ABBF884-360C-4CE3-96CD-B33FA6882C07}">
       <text>
         <r>
           <rPr>
@@ -246,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2AD4BBB0-CAAF-4C29-8EB7-10853CE658D7}">
       <text>
         <r>
           <rPr>
@@ -277,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>Hàng hóa</t>
   </si>
@@ -285,9 +340,6 @@
     <t>Chính sách thanh toán</t>
   </si>
   <si>
-    <t>Kho nhận</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -699,9 +751,6 @@
     </r>
   </si>
   <si>
-    <t>Zoey</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -714,9 +763,6 @@
     <t>PR204</t>
   </si>
   <si>
-    <t>1562_CPHH</t>
-  </si>
-  <si>
     <r>
       <t>Tỷ giá (</t>
     </r>
@@ -892,17 +938,50 @@
   </si>
   <si>
     <t>POLO2023</t>
+  </si>
+  <si>
+    <r>
+      <t>Kho nhận (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Địa điểm xuất NPL</t>
+  </si>
+  <si>
+    <t>Chi phí / Tiền tệ</t>
+  </si>
+  <si>
+    <t>1000000041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1082,24 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1070,15 +1167,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1088,13 +1186,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1424,11 +1531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1546,7 @@
     <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
@@ -1473,158 +1580,158 @@
     <col min="38" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AK1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AL1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
+    <row r="2" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16">
+        <v>22500</v>
+      </c>
+      <c r="E2" s="17">
         <v>45103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
         <v>45134</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="8">
         <v>45133</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>0</v>
@@ -1633,77 +1740,41 @@
         <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="15">
         <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T2" s="1">
         <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1">
+        <v>54</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="Y2" s="1">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>23960</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1198000</v>
-      </c>
-      <c r="AK2" s="1" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1711,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,97 +1826,100 @@
     <col min="33" max="34" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>25</v>
+      <c r="U1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>45103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
         <v>45134</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="8">
         <v>45133</v>
       </c>
       <c r="I2" s="1" t="b">
@@ -1855,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -1867,30 +1941,33 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="14">
+        <v>16</v>
+      </c>
+      <c r="P2" s="15">
         <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:N2">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:T2">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="O2:Q2 S2:U2">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1899,11 +1976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,135 +2023,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="X1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
+      <c r="A2" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>45103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
         <v>45134</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="8">
         <v>45133</v>
       </c>
       <c r="I2" s="1" t="b">
@@ -2084,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -2096,9 +2173,9 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="14">
+        <v>16</v>
+      </c>
+      <c r="P2" s="15">
         <v>10001</v>
       </c>
       <c r="Q2" s="1">
@@ -2107,10 +2184,10 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
@@ -2124,6 +2201,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010015570558A7E4E34C9FC908F8AA8CCE03" ma:contentTypeVersion="2" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="b5e9dccfa7c94a2dc6af17131503e849">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a70de89-a9ee-4e6f-a4d0-6241823bbbed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12f1dcc1fa3bdb4d5e8deb26a304abcf" ns2:_="">
     <xsd:import namespace="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
@@ -2255,22 +2347,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4940E0-21AB-4BF6-89A9-5D6EDC45D85E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2286,28 +2387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
+++ b/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Forlife\code\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE887D06-160C-42E8-89F1-FFB0864E9042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="PO - HH" sheetId="2" r:id="rId1"/>
@@ -22,13 +21,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>DELL</author>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8E58752B-DEF2-4F3B-B547-97D885A50648}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{A7832FF1-B679-488B-9247-503E9D54AA45}">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{61507554-F81D-4D34-80CC-962F7DC2FAE3}">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{A2689054-EB99-4A04-B2ED-7F582F58FA1E}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F8F819C1-AF84-4F5C-9E40-917884FC7863}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{48A72AF1-9C27-454B-98B3-F1078E835996}">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,12 +163,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F516180F-CF8F-4AB6-827E-209C4F56FB26}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{82E18E81-AD32-429C-9FCA-CE6C22164273}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E2A96B8E-1988-4460-82D2-A660A73E6811}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,12 +247,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BE2C66AC-9411-42CF-AEB5-A20C18AE6CD6}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3ABBF884-360C-4CE3-96CD-B33FA6882C07}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2AD4BBB0-CAAF-4C29-8EB7-10853CE658D7}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>Hàng hóa</t>
   </si>
@@ -585,7 +584,7 @@
   </si>
   <si>
     <r>
-      <t>Chi tiết đơn hàng / Số lượng quy đổi (</t>
+      <t>Chi tiết đơn hàng / Địa điểm kho (</t>
     </r>
     <r>
       <rPr>
@@ -610,7 +609,7 @@
   </si>
   <si>
     <r>
-      <t>Chi tiết đơn hàng / Địa điểm kho (</t>
+      <t>Chi tiết đơn hàng / Ngày nhận (</t>
     </r>
     <r>
       <rPr>
@@ -634,8 +633,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Chi tiết đơn hàng / Ngày nhận (</t>
+    <t>Hạn xử lý</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi phí / Tiền tệ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -659,20 +671,109 @@
     </r>
   </si>
   <si>
-    <t>Hạn xử lý</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chi phí / Tiền tệ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <r>
+      <t>Tiền tệ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng  / Thành tiền VND của sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t>Chi tiết đơn hàng / Số lượng (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Nhập khẩu quần áo</t>
+  </si>
+  <si>
+    <t>1551_TP001</t>
+  </si>
+  <si>
+    <t>PR204</t>
+  </si>
+  <si>
+    <r>
+      <t>Tỷ giá (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi tiết đơn hàng / Đơn giá </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -697,11 +798,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Tiền tệ (</t>
-    </r>
-    <r>
-      <rPr>
+    <t>Chi tiết đơn hàng / Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng / Trung tâm chi phí</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>622_NCNB</t>
+  </si>
+  <si>
+    <r>
+      <t>Tỷ giá (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -716,18 +830,39 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hạn xử lý  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Chi tiết đơn hàng  / Thành tiền VND của sản phẩm</t>
-  </si>
-  <si>
-    <r>
-      <t>Chi tiết đơn hàng / Số lượng (</t>
+    <r>
+      <t xml:space="preserve">Chi tiết đơn hàng / Đơn vị mua </t>
     </r>
     <r>
       <rPr>
@@ -738,6 +873,31 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chi tiết đơn hàng / Giá của nhà cung cấp (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -751,20 +911,11 @@
     </r>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Nhập khẩu quần áo</t>
-  </si>
-  <si>
-    <t>1551_TP001</t>
-  </si>
-  <si>
-    <t>PR204</t>
-  </si>
-  <si>
-    <r>
-      <t>Tỷ giá (</t>
+    <t>POLO2023</t>
+  </si>
+  <si>
+    <r>
+      <t>Kho nhận (</t>
     </r>
     <r>
       <rPr>
@@ -772,6 +923,36 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Địa điểm xuất NPL</t>
+  </si>
+  <si>
+    <t>1000000041</t>
+  </si>
+  <si>
+    <r>
+      <t>Chi tiết đơn hàng / Tỷ lệ quy đổi (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
@@ -788,195 +969,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Chi tiết đơn hàng / Đơn giá </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Chi tiết đơn hàng / Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Chi tiết đơn hàng / Trung tâm chi phí</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>622_NCNB</t>
-  </si>
-  <si>
-    <r>
-      <t>Tỷ giá (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Hạn xử lý  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chi tiết đơn hàng / Đơn vị mua </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chi tiết đơn hàng / Giá của nhà cung cấp (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>POLO2023</t>
-  </si>
-  <si>
-    <r>
-      <t>Kho nhận (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Địa điểm xuất NPL</t>
-  </si>
-  <si>
-    <t>Chi phí / Tiền tệ</t>
-  </si>
-  <si>
-    <t>1000000041</t>
+    <t>Chi phí ước tính / Mã Sản phẩm</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính / Tiền tệ</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính / Tỷ giá</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính / Tổng tiền ngoại tệ̣</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính / Thành tiền VND</t>
+  </si>
+  <si>
+    <t>Chi phí ước tính / Chi phí trước thuế</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng / Thuế TTĐB của sản phẩm</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng / % Thuế GTGT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -1531,11 +1551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,10 +1608,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>28</v>
@@ -1603,13 +1623,13 @@
         <v>29</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>5</v>
@@ -1627,16 +1647,16 @@
         <v>30</v>
       </c>
       <c r="P1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>8</v>
@@ -1645,10 +1665,10 @@
         <v>9</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>10</v>
@@ -1657,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="6" t="s">
         <v>17</v>
@@ -1669,42 +1689,42 @@
         <v>18</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>22500</v>
@@ -1728,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="N2" s="1" t="b">
         <v>0</v>
@@ -1755,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -1782,7 +1802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1834,10 +1854,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>28</v>
@@ -1849,7 +1869,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>6</v>
@@ -1867,13 +1887,13 @@
         <v>7</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>8</v>
@@ -1882,13 +1902,13 @@
         <v>9</v>
       </c>
       <c r="S1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="U1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>10</v>
@@ -1899,13 +1919,13 @@
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1929,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -1950,13 +1970,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" s="1">
         <v>1</v>
@@ -1976,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
@@ -2030,10 +2050,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>28</v>
@@ -2045,7 +2065,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>6</v>
@@ -2063,25 +2083,25 @@
         <v>7</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="T1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>10</v>
@@ -2090,7 +2110,7 @@
         <v>24</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>17</v>
@@ -2114,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF1" s="7" t="s">
         <v>11</v>
@@ -2131,13 +2151,13 @@
     </row>
     <row r="2" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2161,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>0</v>
@@ -2187,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
@@ -2210,12 +2230,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010015570558A7E4E34C9FC908F8AA8CCE03" ma:contentTypeVersion="2" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="b5e9dccfa7c94a2dc6af17131503e849">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a70de89-a9ee-4e6f-a4d0-6241823bbbed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12f1dcc1fa3bdb4d5e8deb26a304abcf" ns2:_="">
     <xsd:import namespace="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
@@ -2347,6 +2361,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
   <ds:schemaRefs>
@@ -2356,22 +2376,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4940E0-21AB-4BF6-89A9-5D6EDC45D85E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2387,4 +2391,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
+++ b/addons/custom/forlife_purchase/static/src/xlsx/template_po_nhap_khau_ver2.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FW\odoo\m_onnet_odoo_mfl2201er\addons\custom\forlife_purchase\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E048108-B377-4063-B2DC-BCB41D2FD455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO - HH" sheetId="2" r:id="rId1"/>
@@ -21,13 +22,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DELL</author>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -163,12 +164,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -247,12 +248,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyễn Văn Quyết (DU01 PTPM)</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -300,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>Hàng hóa</t>
   </si>
@@ -991,12 +992,15 @@
   </si>
   <si>
     <t>Chi tiết đơn hàng / % Thuế GTGT</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng / Mô tả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -1551,56 +1555,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30" style="1" customWidth="1"/>
+    <col min="23" max="23" width="28.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="31.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="36.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1641,82 +1646,85 @@
         <v>25</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
@@ -1753,46 +1761,46 @@
       <c r="M2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="b">
+      <c r="O2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="R2" s="15">
         <v>1</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="V2">
+  <conditionalFormatting sqref="W2">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,51 +1810,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.140625" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.109375" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.42578125" customWidth="1"/>
-    <col min="24" max="24" width="42.5703125" customWidth="1"/>
-    <col min="25" max="25" width="38.42578125" customWidth="1"/>
-    <col min="26" max="26" width="44.85546875" customWidth="1"/>
-    <col min="27" max="27" width="33.85546875" customWidth="1"/>
-    <col min="28" max="28" width="40.42578125" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.44140625" customWidth="1"/>
+    <col min="24" max="24" width="42.5546875" customWidth="1"/>
+    <col min="25" max="25" width="38.44140625" customWidth="1"/>
+    <col min="26" max="26" width="44.88671875" customWidth="1"/>
+    <col min="27" max="27" width="33.88671875" customWidth="1"/>
+    <col min="28" max="28" width="40.44140625" customWidth="1"/>
+    <col min="29" max="29" width="20.44140625" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
-    <col min="31" max="31" width="17.85546875" customWidth="1"/>
-    <col min="32" max="32" width="23.42578125" customWidth="1"/>
-    <col min="33" max="34" width="22.42578125" customWidth="1"/>
+    <col min="31" max="31" width="17.88671875" customWidth="1"/>
+    <col min="32" max="32" width="23.44140625" customWidth="1"/>
+    <col min="33" max="34" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
@@ -1996,53 +2004,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2221,12 +2229,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2362,15 +2367,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2394,17 +2410,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ADD2F5-A402-45D1-88A3-5F6CA6334DE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40835504-4F46-4A81-BD00-C7B4354D2E50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>